--- a/01_dados/Editais/Controle Editais.xlsx
+++ b/01_dados/Editais/Controle Editais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/GitHub/sa_maismedicos/01_dados/Editais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{42090356-E42B-4012-A21B-2D1CB800C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E32482-6395-4A92-9CF8-FBB70678D9DF}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{42090356-E42B-4012-A21B-2D1CB800C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3B83A9-013F-44A8-AB18-ADF2D6EED586}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B594B00D-D429-414C-A157-1D3D44CEA6B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Edital</t>
   </si>
@@ -118,13 +118,34 @@
   </si>
   <si>
     <t>Reincorporação</t>
+  </si>
+  <si>
+    <t>Vigência</t>
+  </si>
+  <si>
+    <t>3 anos</t>
+  </si>
+  <si>
+    <t>2 anos</t>
+  </si>
+  <si>
+    <t>1 ano</t>
+  </si>
+  <si>
+    <t>Edital estruturado em duas fases, primeira destinado a formados e revalidados em instituições em brasileiras e a segunda com vagas remanescentes para habilitados médicos no exterior (médico intercambista).</t>
+  </si>
+  <si>
+    <t>Edital destinado a reincorporação dos médicos intercambistas (habilitados no exterior) em virtude de ruptura do acordo com Cuba que tenha permanecido no Brasil até 1º de agosto de 2019 como naturalizados, residentes ou com pedido de refúgio com 4 chamadas.</t>
+  </si>
+  <si>
+    <t>Edital em contexto da COVID-19 em até 5 chamadas, apenas para formados e revalidados em instituições brasileiras.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,14 +157,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -212,12 +225,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -238,9 +261,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,15 +269,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,80 +602,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D322780-3D7F-4170-813C-BDCDB902EA09}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" customWidth="1"/>
-    <col min="9" max="9" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8" t="s">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2017</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="16">
         <v>12</v>
       </c>
       <c r="D3" s="4">
@@ -655,25 +692,30 @@
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2018</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="16">
         <v>18</v>
       </c>
       <c r="D4" s="4">
@@ -685,23 +727,26 @@
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2018</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="16">
         <v>22</v>
       </c>
       <c r="D5" s="4">
@@ -713,23 +758,26 @@
       <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>11</v>
       </c>
       <c r="D6" s="1">
@@ -741,25 +789,28 @@
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2020</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="16">
         <v>5</v>
       </c>
       <c r="D7" s="4">
@@ -771,25 +822,30 @@
       <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2020</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="16">
         <v>9</v>
       </c>
       <c r="D8" s="4">
@@ -801,37 +857,36 @@
       <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H3:H6"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="2017/EDITAL Nº 12%5eJ DE 27 DE NOVEMBRO DE 2017.pdf" xr:uid="{898C3813-0A63-4037-AB60-8C71E95DDD0D}"/>
-    <hyperlink ref="C4" r:id="rId2" display="2018/EDITAL Nº 18%5eJ DE 19 DE NOVEMBRO DE 2018.pdf" xr:uid="{73A8BBEE-3D65-4604-91F1-3F61E6522D6D}"/>
-    <hyperlink ref="C5" r:id="rId3" display="2018/EDITAL Nº 22%5eJ DE 07 DE DEZEMBRO DE 2018.pdf" xr:uid="{7A198E08-9D41-47A9-8BA5-71240AAE2113}"/>
-    <hyperlink ref="C6" r:id="rId4" display="2019/EDITAL Nº 11%5eJ DE 10 DE MAIO DE 2019.pdf" xr:uid="{287BB4B3-711E-4C86-A7B1-371CDB17C49B}"/>
-    <hyperlink ref="C8" r:id="rId5" display="2019/EDITAL Nº 11%5eJ DE 10 DE MAIO DE 2019.pdf" xr:uid="{044D6C38-1DA2-4E75-B3AB-8A566224583F}"/>
-    <hyperlink ref="C7" r:id="rId6" display="2020/EDITAL DE CHAMAMENTO PÚBLICO Nº 5%5eJ DE 11 DE MARÇO DE 2020.pdf" xr:uid="{A55026DA-5082-47DC-9E5A-CCB8D62D4F7B}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>